--- a/模板/LG07-015量块6块.xlsx
+++ b/模板/LG07-015量块6块.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyingya/Workspace/win/measure/模板/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="12375"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27540" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="检定" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">检定!$A:$AP</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -625,9 +638,6 @@
     <t>有效期至：</t>
   </si>
   <si>
-    <t>备注：符号说明：划痕—h，划伤—p，锈蚀—x，合格—√，不合格—×，修后合格—O</t>
-  </si>
-  <si>
     <t>证书编号：</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1060,18 +1070,22 @@
   </si>
   <si>
     <t>&lt;%=_data_.clientName%&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：符号说明：划痕—h，划伤—p，锈蚀—x，合格—vh，不合格—nh</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1086,7 +1100,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1094,7 +1108,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1153,7 +1167,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1187,7 +1201,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1195,7 +1209,7 @@
     <font>
       <sz val="6"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1358,149 +1372,149 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,7 +1522,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1555,12 +1574,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1587,14 +1606,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1621,6 +1641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1796,1325 +1817,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10:AK10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="42" width="2.375" customWidth="1"/>
+    <col min="1" max="42" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:42" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+    </row>
+    <row r="3" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="6"/>
+    </row>
+    <row r="4" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
     </row>
-    <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="37" t="s">
+    <row r="5" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+    </row>
+    <row r="7" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="6"/>
+    </row>
+    <row r="8" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+    </row>
+    <row r="9" spans="1:42" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+    </row>
+    <row r="10" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+    </row>
+    <row r="11" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+    </row>
+    <row r="12" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+    </row>
+    <row r="13" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+    </row>
+    <row r="14" spans="1:42" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+    </row>
+    <row r="15" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>101.2</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>200</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>291.5</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
+        <v>375</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
+        <v>451.8</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A20" s="31">
+        <v>490</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="43"/>
     </row>
-    <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK4" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="44"/>
     </row>
-    <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="41"/>
-    </row>
-    <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-    </row>
-    <row r="7" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="43"/>
-    </row>
-    <row r="8" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-    </row>
-    <row r="9" spans="1:42" ht="26.1" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-    </row>
-    <row r="10" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-    </row>
-    <row r="11" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-    </row>
-    <row r="12" spans="1:42" ht="14.25" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-    </row>
-    <row r="13" spans="1:42" ht="21" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-    </row>
-    <row r="14" spans="1:42" ht="21.95" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-    </row>
-    <row r="15" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>101.2</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="12">
-        <v>200</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-    </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="12">
-        <v>291.5</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-    </row>
-    <row r="18" spans="1:42">
-      <c r="A18" s="12">
-        <v>375</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-    </row>
-    <row r="19" spans="1:42">
-      <c r="A19" s="12">
-        <v>451.8</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-    </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="12">
-        <v>490</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-    </row>
-    <row r="21" spans="1:42">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="7"/>
-    </row>
-    <row r="23" spans="1:42">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="8" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="8" t="s">
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="8" t="s">
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+      <c r="AL23" s="46"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="46"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:AP3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AP4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:AP2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AJ5:AP5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:AP6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="M7:AP7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="O8:AD8"/>
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="O9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:AP22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AH23:AP23"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:AP18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AP15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:AP16"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="L13:O14"/>
     <mergeCell ref="A12:AP12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="P13:AD13"/>
@@ -3139,107 +3225,42 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:AP16"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AN18:AP18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:AP22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AH23:AP23"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="O8:AD8"/>
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="O9:AD9"/>
+    <mergeCell ref="AE9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AJ5:AP5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:AP6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="M7:AP7"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:AP3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.3" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
